--- a/src/main/resources/excel/finished/6高炉/高炉冷却壁温度日报表.xlsx
+++ b/src/main/resources/excel/finished/6高炉/高炉冷却壁温度日报表.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_day_all" sheetId="2" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="_tag_day_all" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="321">
   <si>
     <t>高炉冷却壁温度日报表</t>
   </si>
@@ -525,453 +525,6 @@
   </si>
   <si>
     <t>点名</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04459_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04460_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04461_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04462_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04455_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04456_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04457_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04458_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04447_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04448_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04449_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04450_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04451_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04452_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04453_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04454_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04440_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04441_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04442_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04443_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04444_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04445_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04446_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04439_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04431_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04432_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04433_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04434_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04435_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04436_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04437_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04438_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04423_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04424_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04425_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04426_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04427_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04428_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04429_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04430_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04405_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04406_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04407_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04408_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04409_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04410_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04411_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04412_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04413_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04414_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04415_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04416_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04417_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04418_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04419_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04420_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04421_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04422_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04387_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04388_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04389_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04390_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04391_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04392_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04393_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04394_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04395_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04396_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04397_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04398_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04399_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04400_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04401_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04402_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04403_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04404_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04369_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04370_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04371_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04372_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04373_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04374_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04375_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04376_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04377_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04378_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04379_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04380_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04381_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04382_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04383_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04384_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04385_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04386_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04351_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04352_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04353_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04354_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04355_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04356_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04357_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04358_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04359_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04360_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04361_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04362_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04363_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04364_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04365_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04366_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04367_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04368_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04343_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04344_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04345_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04346_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04347_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04348_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04349_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04350_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04339_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04340_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04341_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04342_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04335_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04336_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04337_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04338_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04331_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04332_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04333_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04334_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04463_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04464_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04465_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04466_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04467_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04468_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04469_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04470_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04471_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04472_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04473_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04474_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04475_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04476_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04477_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04478_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04479_1m_avg</t>
   </si>
   <si>
     <t>夜班</t>
@@ -2047,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3296,451 +2849,451 @@
         <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BM5" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="BQ5" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BR5" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BT5" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BU5" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BW5" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BX5" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BY5" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BZ5" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="CA5" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="CC5" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="CF5" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="CI5" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="CK5" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CM5" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CN5" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CO5" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="CP5" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="CQ5" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CR5" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CS5" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CT5" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CU5" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CV5" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CW5" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CX5" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CY5" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CZ5" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="DB5" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DC5" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="DD5" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="DE5" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="DF5" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="DG5" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DH5" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="DI5" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="DJ5" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="DK5" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="DL5" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="DM5" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="DN5" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="DO5" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="DP5" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="DQ5" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DR5" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DS5" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DT5" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DU5" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DV5" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DW5" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DX5" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DY5" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DZ5" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="EA5" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="EB5" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="EC5" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="ED5" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="EE5" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="EF5" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="EG5" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="EH5" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="EI5" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="EJ5" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="EK5" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="EL5" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="EM5" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="EN5" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="EO5" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="EP5" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="EQ5" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="ER5" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="ES5" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="ET5" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.15">
@@ -18169,7 +17722,7 @@
     </row>
     <row r="30" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -18323,7 +17876,7 @@
     </row>
     <row r="31" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -18477,7 +18030,7 @@
     </row>
     <row r="32" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -18631,7 +18184,7 @@
     </row>
     <row r="33" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -18813,459 +18366,459 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="DV1" workbookViewId="0">
+      <selection sqref="A1:ES1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:149" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>322</v>
+        <v>173</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>322</v>
+        <v>173</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>323</v>
+        <v>174</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>325</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>329</v>
+        <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>332</v>
+        <v>183</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>334</v>
+        <v>185</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>335</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>336</v>
+        <v>187</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>189</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>339</v>
+        <v>190</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>341</v>
+        <v>192</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>344</v>
+        <v>195</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>345</v>
+        <v>196</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>346</v>
+        <v>197</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>349</v>
+        <v>200</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>352</v>
+        <v>203</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>353</v>
+        <v>204</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>356</v>
+        <v>207</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>357</v>
+        <v>208</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>358</v>
+        <v>209</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>359</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>360</v>
+        <v>211</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>361</v>
+        <v>212</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>362</v>
+        <v>213</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>364</v>
+        <v>215</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>366</v>
+        <v>217</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>367</v>
+        <v>218</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>369</v>
+        <v>220</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>370</v>
+        <v>221</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>371</v>
+        <v>222</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>372</v>
+        <v>223</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>373</v>
+        <v>224</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>374</v>
+        <v>225</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>375</v>
+        <v>226</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>376</v>
+        <v>227</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>377</v>
+        <v>228</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>378</v>
+        <v>229</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>379</v>
+        <v>230</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>380</v>
+        <v>231</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>381</v>
+        <v>232</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>382</v>
+        <v>233</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>383</v>
+        <v>234</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>384</v>
+        <v>235</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>385</v>
+        <v>236</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>386</v>
+        <v>237</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>387</v>
+        <v>238</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>388</v>
+        <v>239</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>389</v>
+        <v>240</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>390</v>
+        <v>241</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>391</v>
+        <v>242</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>393</v>
+        <v>244</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>394</v>
+        <v>245</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>395</v>
+        <v>246</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>396</v>
+        <v>247</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>397</v>
+        <v>248</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>398</v>
+        <v>249</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>399</v>
+        <v>250</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>401</v>
+        <v>252</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="CF1" s="2" t="s">
-        <v>403</v>
+        <v>254</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>404</v>
+        <v>255</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>405</v>
+        <v>256</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>409</v>
+        <v>260</v>
       </c>
       <c r="CM1" s="3" t="s">
-        <v>410</v>
+        <v>261</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>411</v>
+        <v>262</v>
       </c>
       <c r="CO1" s="3" t="s">
-        <v>412</v>
+        <v>263</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>413</v>
+        <v>264</v>
       </c>
       <c r="CQ1" s="3" t="s">
-        <v>414</v>
+        <v>265</v>
       </c>
       <c r="CR1" s="3" t="s">
-        <v>415</v>
+        <v>266</v>
       </c>
       <c r="CS1" s="3" t="s">
-        <v>416</v>
+        <v>267</v>
       </c>
       <c r="CT1" s="3" t="s">
-        <v>417</v>
+        <v>268</v>
       </c>
       <c r="CU1" s="3" t="s">
-        <v>418</v>
+        <v>269</v>
       </c>
       <c r="CV1" s="3" t="s">
-        <v>419</v>
+        <v>270</v>
       </c>
       <c r="CW1" s="3" t="s">
-        <v>420</v>
+        <v>271</v>
       </c>
       <c r="CX1" s="3" t="s">
-        <v>421</v>
+        <v>272</v>
       </c>
       <c r="CY1" s="3" t="s">
-        <v>422</v>
+        <v>273</v>
       </c>
       <c r="CZ1" s="3" t="s">
-        <v>423</v>
+        <v>274</v>
       </c>
       <c r="DA1" s="3" t="s">
-        <v>424</v>
+        <v>275</v>
       </c>
       <c r="DB1" s="3" t="s">
-        <v>425</v>
+        <v>276</v>
       </c>
       <c r="DC1" s="3" t="s">
-        <v>426</v>
+        <v>277</v>
       </c>
       <c r="DD1" s="3" t="s">
-        <v>427</v>
+        <v>278</v>
       </c>
       <c r="DE1" s="3" t="s">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="DF1" s="3" t="s">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="DG1" s="3" t="s">
-        <v>430</v>
+        <v>281</v>
       </c>
       <c r="DH1" s="3" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
       <c r="DI1" s="3" t="s">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="DJ1" s="3" t="s">
-        <v>433</v>
+        <v>284</v>
       </c>
       <c r="DK1" s="3" t="s">
-        <v>434</v>
+        <v>285</v>
       </c>
       <c r="DL1" s="3" t="s">
-        <v>435</v>
+        <v>286</v>
       </c>
       <c r="DM1" s="3" t="s">
-        <v>436</v>
+        <v>287</v>
       </c>
       <c r="DN1" s="3" t="s">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="DO1" s="3" t="s">
-        <v>438</v>
+        <v>289</v>
       </c>
       <c r="DP1" s="3" t="s">
-        <v>439</v>
+        <v>290</v>
       </c>
       <c r="DQ1" s="3" t="s">
-        <v>440</v>
+        <v>291</v>
       </c>
       <c r="DR1" s="3" t="s">
-        <v>441</v>
+        <v>292</v>
       </c>
       <c r="DS1" s="3" t="s">
-        <v>442</v>
+        <v>293</v>
       </c>
       <c r="DT1" s="3" t="s">
-        <v>443</v>
+        <v>294</v>
       </c>
       <c r="DU1" s="3" t="s">
-        <v>444</v>
+        <v>295</v>
       </c>
       <c r="DV1" s="3" t="s">
-        <v>445</v>
+        <v>296</v>
       </c>
       <c r="DW1" s="3" t="s">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="DX1" s="3" t="s">
-        <v>447</v>
+        <v>298</v>
       </c>
       <c r="DY1" s="3" t="s">
-        <v>448</v>
+        <v>299</v>
       </c>
       <c r="DZ1" s="3" t="s">
-        <v>449</v>
+        <v>300</v>
       </c>
       <c r="EA1" s="3" t="s">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="EB1" s="3" t="s">
-        <v>451</v>
+        <v>302</v>
       </c>
       <c r="EC1" s="3" t="s">
-        <v>452</v>
+        <v>303</v>
       </c>
       <c r="ED1" s="3" t="s">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="EE1" s="3" t="s">
-        <v>454</v>
+        <v>305</v>
       </c>
       <c r="EF1" s="3" t="s">
-        <v>455</v>
+        <v>306</v>
       </c>
       <c r="EG1" s="3" t="s">
-        <v>456</v>
+        <v>307</v>
       </c>
       <c r="EH1" s="3" t="s">
-        <v>457</v>
+        <v>308</v>
       </c>
       <c r="EI1" s="3" t="s">
-        <v>458</v>
+        <v>309</v>
       </c>
       <c r="EJ1" s="3" t="s">
-        <v>459</v>
+        <v>310</v>
       </c>
       <c r="EK1" s="3" t="s">
-        <v>460</v>
+        <v>311</v>
       </c>
       <c r="EL1" s="3" t="s">
-        <v>461</v>
+        <v>312</v>
       </c>
       <c r="EM1" s="3" t="s">
-        <v>462</v>
+        <v>313</v>
       </c>
       <c r="EN1" s="3" t="s">
-        <v>463</v>
+        <v>314</v>
       </c>
       <c r="EO1" s="3" t="s">
-        <v>464</v>
+        <v>315</v>
       </c>
       <c r="EP1" s="3" t="s">
-        <v>465</v>
+        <v>316</v>
       </c>
       <c r="EQ1" s="3" t="s">
-        <v>466</v>
+        <v>317</v>
       </c>
       <c r="ER1" s="3" t="s">
-        <v>467</v>
+        <v>318</v>
       </c>
       <c r="ES1" s="4" t="s">
-        <v>468</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -19279,7 +18832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -19287,7 +18840,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>320</v>
       </c>
       <c r="B1">
         <v>6</v>
